--- a/biology/Botanique/Ocotea_foetens/Ocotea_foetens.xlsx
+++ b/biology/Botanique/Ocotea_foetens/Ocotea_foetens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocotea foetens est un arbre de la famille des Lauracées endémique de Macaronésie. C'est notamment une espèce constituant les laurisylves, forêts qui couvraient autrefois une grande partie des îles de Madère et des Canaries. L'espèce est aujourd'hui menacée par la perte de son habitat.
 C'est un arbre qui peut couramment atteindre des hauteurs de 30 m, avec certains spécimens à 40 m. Ses feuilles sont persistantes, ses fleurs sont blanches. Il produit des baies vert foncé qui vont progressivement noircir avant de tomber. Les baies sont consommées surtout par les pigeons.
